--- a/ApproachingAsteroids.xlsx
+++ b/ApproachingAsteroids.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Approaching Asteroids" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Approaching Asteroids'!$A$3:$L$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Approaching Asteroids'!$A$3:$L$151</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Approaching Asteroids'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="954">
   <si>
     <t>Close Approach Date</t>
   </si>
@@ -260,7 +260,7 @@
     <t>14.27</t>
   </si>
   <si>
-    <t>4623349.49</t>
+    <t>4623580.15</t>
   </si>
   <si>
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54467482</t>
@@ -290,117 +290,135 @@
     <t>54467606</t>
   </si>
   <si>
-    <t>24.12</t>
+    <t>23.98</t>
   </si>
   <si>
     <t>0.04</t>
   </si>
   <si>
+    <t>4.79</t>
+  </si>
+  <si>
+    <t>20901273.96</t>
+  </si>
+  <si>
+    <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54467606</t>
+  </si>
+  <si>
+    <t>(2024 RH2)</t>
+  </si>
+  <si>
+    <t>54468276</t>
+  </si>
+  <si>
+    <t>25.05</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>4.23</t>
+  </si>
+  <si>
+    <t>2991314.80</t>
+  </si>
+  <si>
+    <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54468276</t>
+  </si>
+  <si>
+    <t>(2024 RL4)</t>
+  </si>
+  <si>
+    <t>54468782</t>
+  </si>
+  <si>
+    <t>25.85</t>
+  </si>
+  <si>
+    <t>16.80</t>
+  </si>
+  <si>
+    <t>4816920.40</t>
+  </si>
+  <si>
+    <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54468782</t>
+  </si>
+  <si>
+    <t>(2024 RL5)</t>
+  </si>
+  <si>
+    <t>54469015</t>
+  </si>
+  <si>
+    <t>22.49</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>3.53</t>
+  </si>
+  <si>
+    <t>49184022.04</t>
+  </si>
+  <si>
+    <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54469015</t>
+  </si>
+  <si>
+    <t>(2024 RO)</t>
+  </si>
+  <si>
+    <t>54467613</t>
+  </si>
+  <si>
+    <t>25.15</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>11690937.18</t>
+  </si>
+  <si>
+    <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54467613</t>
+  </si>
+  <si>
+    <t>(2024 RT12)</t>
+  </si>
+  <si>
+    <t>54470722</t>
+  </si>
+  <si>
+    <t>25.87</t>
+  </si>
+  <si>
+    <t>7.40</t>
+  </si>
+  <si>
+    <t>3921455.22</t>
+  </si>
+  <si>
+    <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54470722</t>
+  </si>
+  <si>
+    <t>(2024 RY5)</t>
+  </si>
+  <si>
+    <t>54469021</t>
+  </si>
+  <si>
+    <t>24.11</t>
+  </si>
+  <si>
     <t>0.09</t>
   </si>
   <si>
-    <t>4.79</t>
-  </si>
-  <si>
-    <t>20896497.13</t>
-  </si>
-  <si>
-    <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54467606</t>
-  </si>
-  <si>
-    <t>(2024 RH2)</t>
-  </si>
-  <si>
-    <t>54468276</t>
-  </si>
-  <si>
-    <t>25.07</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>4.23</t>
-  </si>
-  <si>
-    <t>2991492.78</t>
-  </si>
-  <si>
-    <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54468276</t>
-  </si>
-  <si>
-    <t>(2024 RL4)</t>
-  </si>
-  <si>
-    <t>54468782</t>
-  </si>
-  <si>
-    <t>25.85</t>
-  </si>
-  <si>
-    <t>16.80</t>
-  </si>
-  <si>
-    <t>4816920.40</t>
-  </si>
-  <si>
-    <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54468782</t>
-  </si>
-  <si>
-    <t>(2024 RL5)</t>
-  </si>
-  <si>
-    <t>54469015</t>
-  </si>
-  <si>
-    <t>22.49</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>3.53</t>
-  </si>
-  <si>
-    <t>49184022.04</t>
-  </si>
-  <si>
-    <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54469015</t>
-  </si>
-  <si>
-    <t>(2024 RO)</t>
-  </si>
-  <si>
-    <t>54467613</t>
-  </si>
-  <si>
-    <t>25.15</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>11690937.18</t>
-  </si>
-  <si>
-    <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54467613</t>
-  </si>
-  <si>
-    <t>(2024 RY5)</t>
-  </si>
-  <si>
-    <t>54469021</t>
-  </si>
-  <si>
-    <t>24.11</t>
-  </si>
-  <si>
     <t>5.54</t>
   </si>
   <si>
@@ -428,7 +446,7 @@
     <t>6.54</t>
   </si>
   <si>
-    <t>51630811.68</t>
+    <t>51630811.04</t>
   </si>
   <si>
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=2359592</t>
@@ -788,13 +806,13 @@
     <t>54468776</t>
   </si>
   <si>
-    <t>24.36</t>
+    <t>24.41</t>
   </si>
   <si>
     <t>12.18</t>
   </si>
   <si>
-    <t>15908379.63</t>
+    <t>15909358.37</t>
   </si>
   <si>
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54468776</t>
@@ -824,13 +842,13 @@
     <t>54470416</t>
   </si>
   <si>
-    <t>25.08</t>
+    <t>25.11</t>
   </si>
   <si>
     <t>10.94</t>
   </si>
   <si>
-    <t>5356733.11</t>
+    <t>5353950.61</t>
   </si>
   <si>
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54470416</t>
@@ -1049,6 +1067,24 @@
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54467563</t>
   </si>
   <si>
+    <t>(2024 RA13)</t>
+  </si>
+  <si>
+    <t>54470730</t>
+  </si>
+  <si>
+    <t>24.37</t>
+  </si>
+  <si>
+    <t>11.50</t>
+  </si>
+  <si>
+    <t>10964080.75</t>
+  </si>
+  <si>
+    <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54470730</t>
+  </si>
+  <si>
     <t>(2024 RA6)</t>
   </si>
   <si>
@@ -1070,19 +1106,37 @@
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54469023</t>
   </si>
   <si>
+    <t>(2024 RB13)</t>
+  </si>
+  <si>
+    <t>54470731</t>
+  </si>
+  <si>
+    <t>28.25</t>
+  </si>
+  <si>
+    <t>9.80</t>
+  </si>
+  <si>
+    <t>2110583.12</t>
+  </si>
+  <si>
+    <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54470731</t>
+  </si>
+  <si>
     <t>(2024 RL10)</t>
   </si>
   <si>
     <t>54470174</t>
   </si>
   <si>
-    <t>27.38</t>
+    <t>27.46</t>
   </si>
   <si>
     <t>5.72</t>
   </si>
   <si>
-    <t>1492558.07</t>
+    <t>1491847.15</t>
   </si>
   <si>
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54470174</t>
@@ -1133,7 +1187,7 @@
     <t>9.05</t>
   </si>
   <si>
-    <t>28074339.95</t>
+    <t>28074339.80</t>
   </si>
   <si>
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=3001703</t>
@@ -1388,10 +1442,13 @@
     <t>54470175</t>
   </si>
   <si>
-    <t>6.57</t>
-  </si>
-  <si>
-    <t>1989281.06</t>
+    <t>25.52</t>
+  </si>
+  <si>
+    <t>6.56</t>
+  </si>
+  <si>
+    <t>1987984.76</t>
   </si>
   <si>
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54470175</t>
@@ -1403,13 +1460,13 @@
     <t>54469017</t>
   </si>
   <si>
-    <t>28.03</t>
+    <t>28.01</t>
   </si>
   <si>
     <t>5.92</t>
   </si>
   <si>
-    <t>431295.94</t>
+    <t>431347.63</t>
   </si>
   <si>
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54469017</t>
@@ -1508,7 +1565,7 @@
     <t>8.02</t>
   </si>
   <si>
-    <t>29680074.69</t>
+    <t>29680074.44</t>
   </si>
   <si>
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=2497096</t>
@@ -1556,7 +1613,7 @@
     <t>5.65</t>
   </si>
   <si>
-    <t>37143622.13</t>
+    <t>37143622.04</t>
   </si>
   <si>
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=2066251</t>
@@ -1736,7 +1793,7 @@
     <t>54467188</t>
   </si>
   <si>
-    <t>20.67</t>
+    <t>20.68</t>
   </si>
   <si>
     <t>0.44</t>
@@ -1745,7 +1802,7 @@
     <t>14.17</t>
   </si>
   <si>
-    <t>39015608.30</t>
+    <t>39015298.93</t>
   </si>
   <si>
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54467188</t>
@@ -1814,13 +1871,10 @@
     <t>54467615</t>
   </si>
   <si>
-    <t>25.13</t>
-  </si>
-  <si>
     <t>6.70</t>
   </si>
   <si>
-    <t>524383.99</t>
+    <t>524372.95</t>
   </si>
   <si>
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54467615</t>
@@ -1913,10 +1967,10 @@
     <t>22.15</t>
   </si>
   <si>
-    <t>13.09</t>
-  </si>
-  <si>
-    <t>24847286.93</t>
+    <t>13.10</t>
+  </si>
+  <si>
+    <t>24799971.05</t>
   </si>
   <si>
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=3467261</t>
@@ -2123,7 +2177,7 @@
     <t>8.87</t>
   </si>
   <si>
-    <t>999973.84</t>
+    <t>999987.29</t>
   </si>
   <si>
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54465209</t>
@@ -2186,13 +2240,13 @@
     <t>54468787</t>
   </si>
   <si>
-    <t>23.73</t>
-  </si>
-  <si>
-    <t>12.50</t>
-  </si>
-  <si>
-    <t>31976654.95</t>
+    <t>23.78</t>
+  </si>
+  <si>
+    <t>12.51</t>
+  </si>
+  <si>
+    <t>31997020.25</t>
   </si>
   <si>
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54468787</t>
@@ -2204,13 +2258,13 @@
     <t>54470415</t>
   </si>
   <si>
-    <t>26.65</t>
+    <t>26.68</t>
   </si>
   <si>
     <t>5.29</t>
   </si>
   <si>
-    <t>1777458.27</t>
+    <t>1777890.46</t>
   </si>
   <si>
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54470415</t>
@@ -2246,7 +2300,7 @@
     <t>15.56</t>
   </si>
   <si>
-    <t>3249423.85</t>
+    <t>3249423.67</t>
   </si>
   <si>
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=3633188</t>
@@ -2306,7 +2360,7 @@
     <t>18.84</t>
   </si>
   <si>
-    <t>57728321.29</t>
+    <t>57728323.12</t>
   </si>
   <si>
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=3771614</t>
@@ -2567,10 +2621,10 @@
     <t>22.41</t>
   </si>
   <si>
-    <t>9.85</t>
-  </si>
-  <si>
-    <t>9362753.82</t>
+    <t>9.84</t>
+  </si>
+  <si>
+    <t>9359275.77</t>
   </si>
   <si>
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54468520</t>
@@ -2582,13 +2636,13 @@
     <t>54469551</t>
   </si>
   <si>
-    <t>20.93</t>
-  </si>
-  <si>
-    <t>12.57</t>
-  </si>
-  <si>
-    <t>54976792.86</t>
+    <t>20.99</t>
+  </si>
+  <si>
+    <t>12.56</t>
+  </si>
+  <si>
+    <t>54971022.62</t>
   </si>
   <si>
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54469551</t>
@@ -2603,13 +2657,10 @@
     <t>3092069</t>
   </si>
   <si>
-    <t>23.98</t>
-  </si>
-  <si>
     <t>2.49</t>
   </si>
   <si>
-    <t>15889947.39</t>
+    <t>15889963.25</t>
   </si>
   <si>
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=3092069</t>
@@ -2828,7 +2879,7 @@
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54470427</t>
   </si>
   <si>
-    <t>APPROACHING ASTEROIDS DATA (as of 12-Sep-2024 @ 12:24 AM) (145 Asteroids)</t>
+    <t>APPROACHING ASTEROIDS DATA (as of 12-Sep-2024 @ 01:55 PM) (148 Asteroids)</t>
   </si>
 </sst>
 </file>
@@ -3198,7 +3249,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L148"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -3220,7 +3271,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>936</v>
+        <v>953</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3669,25 +3720,25 @@
         <v>91</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3695,37 +3746,37 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3733,13 +3784,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>43</v>
@@ -3751,19 +3802,19 @@
         <v>22</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -3771,37 +3822,37 @@
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -3809,37 +3860,37 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -3847,37 +3898,37 @@
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3885,37 +3936,37 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="G20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="J20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3923,28 +3974,28 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>21</v>
@@ -3953,12 +4004,12 @@
         <v>22</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="3" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>144</v>
@@ -3970,33 +4021,33 @@
         <v>146</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>150</v>
@@ -4008,86 +4059,86 @@
         <v>152</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="J23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>22</v>
@@ -4110,7 +4161,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>171</v>
@@ -4122,86 +4173,86 @@
         <v>173</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>22</v>
@@ -4224,7 +4275,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>191</v>
@@ -4236,10 +4287,10 @@
         <v>193</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>22</v>
@@ -4262,7 +4313,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>197</v>
@@ -4274,10 +4325,10 @@
         <v>199</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>22</v>
@@ -4300,7 +4351,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>203</v>
@@ -4312,10 +4363,10 @@
         <v>205</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>22</v>
@@ -4338,7 +4389,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>209</v>
@@ -4350,48 +4401,48 @@
         <v>211</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="3" t="s">
+      <c r="J32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>22</v>
@@ -4414,7 +4465,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>223</v>
@@ -4426,48 +4477,48 @@
         <v>225</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="F35" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>22</v>
@@ -4490,7 +4541,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>236</v>
@@ -4502,10 +4553,10 @@
         <v>238</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>22</v>
@@ -4528,7 +4579,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>242</v>
@@ -4540,10 +4591,10 @@
         <v>244</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>22</v>
@@ -4566,7 +4617,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>248</v>
@@ -4578,10 +4629,10 @@
         <v>250</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>22</v>
@@ -4604,7 +4655,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>254</v>
@@ -4616,7 +4667,7 @@
         <v>256</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>113</v>
@@ -4642,7 +4693,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>260</v>
@@ -4654,10 +4705,10 @@
         <v>262</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>22</v>
@@ -4680,7 +4731,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>266</v>
@@ -4692,10 +4743,10 @@
         <v>268</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>22</v>
@@ -4718,7 +4769,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>272</v>
@@ -4730,16 +4781,16 @@
         <v>274</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="F42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>276</v>
@@ -4756,45 +4807,45 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H43" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>285</v>
@@ -4806,57 +4857,57 @@
         <v>287</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="J44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="L44" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="F45" s="3" t="s">
-        <v>28</v>
+        <v>295</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>21</v>
@@ -4865,27 +4916,27 @@
         <v>22</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>22</v>
@@ -4908,7 +4959,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>304</v>
@@ -4920,51 +4971,51 @@
         <v>306</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="3" t="s">
+      <c r="J47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="G48" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>315</v>
@@ -4984,7 +5035,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>318</v>
@@ -4996,10 +5047,10 @@
         <v>320</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>22</v>
@@ -5022,7 +5073,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>324</v>
@@ -5034,48 +5085,48 @@
         <v>326</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>22</v>
@@ -5098,7 +5149,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>337</v>
@@ -5110,10 +5161,10 @@
         <v>339</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>22</v>
@@ -5136,7 +5187,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>343</v>
@@ -5148,223 +5199,223 @@
         <v>345</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="F53" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="J53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="E54" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="J54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="G55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="I55" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" s="3" t="s">
+      <c r="J55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="E56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="I56" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="J56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="3" t="s">
-        <v>364</v>
+        <v>284</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="3" t="s">
-        <v>364</v>
+        <v>284</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>383</v>
@@ -5376,19 +5427,19 @@
         <v>385</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>35</v>
+        <v>386</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>133</v>
+        <v>387</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>21</v>
@@ -5397,36 +5448,36 @@
         <v>22</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>155</v>
+        <v>393</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>21</v>
@@ -5435,36 +5486,36 @@
         <v>22</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E61" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G61" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>397</v>
+        <v>245</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>21</v>
@@ -5473,36 +5524,36 @@
         <v>22</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>21</v>
@@ -5511,27 +5562,27 @@
         <v>22</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>315</v>
+        <v>161</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>408</v>
+        <v>98</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>22</v>
@@ -5554,7 +5605,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>412</v>
@@ -5566,48 +5617,48 @@
         <v>414</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>307</v>
+        <v>91</v>
       </c>
       <c r="F64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" s="3" t="s">
+      <c r="I64" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="J64" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L64" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="E65" s="3" t="s">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>22</v>
@@ -5630,7 +5681,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>424</v>
@@ -5639,13 +5690,13 @@
         <v>425</v>
       </c>
       <c r="D66" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>22</v>
@@ -5668,7 +5719,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>430</v>
@@ -5680,19 +5731,19 @@
         <v>432</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>100</v>
+        <v>313</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>288</v>
+        <v>433</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>233</v>
+        <v>434</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>21</v>
@@ -5701,36 +5752,36 @@
         <v>22</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>437</v>
+        <v>225</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>21</v>
@@ -5739,36 +5790,36 @@
         <v>22</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E69" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="G69" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>21</v>
@@ -5777,65 +5828,65 @@
         <v>22</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>450</v>
+        <v>294</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H70" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="J70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L70" s="4" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>443</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>22</v>
@@ -5858,7 +5909,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>459</v>
@@ -5870,10 +5921,10 @@
         <v>461</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>22</v>
@@ -5888,7 +5939,7 @@
         <v>21</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>464</v>
@@ -5896,7 +5947,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>465</v>
@@ -5908,19 +5959,19 @@
         <v>467</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>99</v>
+        <v>468</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>21</v>
@@ -5929,36 +5980,36 @@
         <v>22</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>21</v>
@@ -5967,293 +6018,293 @@
         <v>22</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>486</v>
+        <v>51</v>
       </c>
       <c r="F76" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H76" s="3" t="s">
+      <c r="I76" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="J76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L76" s="4" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="E77" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F77" s="3" t="s">
+      <c r="I77" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H77" s="3" t="s">
+      <c r="J77" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" s="4" t="s">
         <v>495</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="E78" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="I78" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="J78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" s="4" t="s">
         <v>501</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="G79" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="I79" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="J79" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L79" s="4" t="s">
         <v>509</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L79" s="4" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="I80" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="J80" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L80" s="4" t="s">
         <v>516</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L80" s="4" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="3" t="s">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="G81" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="I81" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H81" s="3" t="s">
+      <c r="J81" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" s="4" t="s">
         <v>524</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L81" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="3" t="s">
-        <v>514</v>
+        <v>382</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>22</v>
@@ -6268,7 +6319,7 @@
         <v>21</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L82" s="4" t="s">
         <v>532</v>
@@ -6276,31 +6327,31 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="3" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>51</v>
+        <v>294</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>99</v>
+        <v>295</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>21</v>
@@ -6309,36 +6360,36 @@
         <v>22</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="3" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>21</v>
@@ -6347,65 +6398,65 @@
         <v>22</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="3" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="3" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>554</v>
+        <v>98</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>22</v>
@@ -6428,7 +6479,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="3" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>558</v>
@@ -6440,10 +6491,10 @@
         <v>560</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>22</v>
@@ -6466,7 +6517,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="3" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>564</v>
@@ -6478,10 +6529,10 @@
         <v>566</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>408</v>
+        <v>98</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>22</v>
@@ -6504,7 +6555,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="3" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>570</v>
@@ -6516,7 +6567,7 @@
         <v>572</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>450</v>
+        <v>28</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>573</v>
@@ -6542,7 +6593,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="3" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>577</v>
@@ -6554,10 +6605,10 @@
         <v>579</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>22</v>
@@ -6580,7 +6631,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="3" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>583</v>
@@ -6592,10 +6643,10 @@
         <v>585</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>113</v>
+        <v>426</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>22</v>
@@ -6618,7 +6669,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="3" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>589</v>
@@ -6630,7 +6681,7 @@
         <v>591</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>592</v>
@@ -6656,7 +6707,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="3" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>596</v>
@@ -6668,10 +6719,10 @@
         <v>598</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>22</v>
@@ -6694,7 +6745,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="3" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>602</v>
@@ -6706,10 +6757,10 @@
         <v>604</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>22</v>
@@ -6732,7 +6783,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="3" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>608</v>
@@ -6744,7 +6795,7 @@
         <v>610</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>573</v>
+        <v>187</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>611</v>
@@ -6770,121 +6821,121 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H96" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H96" s="3" t="s">
+      <c r="I96" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="I96" s="3" t="s">
+      <c r="J96" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L96" s="4" t="s">
         <v>619</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L96" s="4" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="3" t="s">
-        <v>615</v>
+        <v>533</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="E97" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F97" s="3" t="s">
+      <c r="I97" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H97" s="3" t="s">
+      <c r="J97" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L97" s="4" t="s">
         <v>625</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L97" s="4" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="3" t="s">
-        <v>615</v>
+        <v>533</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="E98" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="G98" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H98" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H98" s="3" t="s">
+      <c r="I98" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="I98" s="3" t="s">
+      <c r="J98" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L98" s="4" t="s">
         <v>632</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L98" s="4" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="3" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>634</v>
@@ -6893,51 +6944,51 @@
         <v>635</v>
       </c>
       <c r="D99" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" s="3" t="s">
+      <c r="I99" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="I99" s="3" t="s">
+      <c r="J99" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L99" s="4" t="s">
         <v>638</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L99" s="4" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="3" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="E100" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>642</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>22</v>
@@ -6960,7 +7011,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="3" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>646</v>
@@ -6972,10 +7023,10 @@
         <v>648</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>22</v>
@@ -6998,7 +7049,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="3" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>652</v>
@@ -7010,165 +7061,165 @@
         <v>654</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>346</v>
+        <v>98</v>
       </c>
       <c r="F102" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H102" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H102" s="3" t="s">
+      <c r="I102" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="I102" s="3" t="s">
+      <c r="J102" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L102" s="4" t="s">
         <v>657</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L102" s="4" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="3" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="D103" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="E103" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F103" s="3" t="s">
+      <c r="I103" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="G103" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H103" s="3" t="s">
+      <c r="J103" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L103" s="4" t="s">
         <v>663</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L103" s="4" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="3" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>666</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>668</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H104" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L104" s="4" t="s">
         <v>669</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L104" s="4" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="3" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="E105" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="G105" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H105" s="3" t="s">
+      <c r="I105" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="J105" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L105" s="4" t="s">
         <v>676</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L105" s="4" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="3" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="B106" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="E106" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F106" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="G106" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>681</v>
@@ -7180,7 +7231,7 @@
         <v>21</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L106" s="4" t="s">
         <v>683</v>
@@ -7188,7 +7239,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="3" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>684</v>
@@ -7200,10 +7251,10 @@
         <v>686</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>22</v>
@@ -7218,7 +7269,7 @@
         <v>21</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L107" s="4" t="s">
         <v>689</v>
@@ -7226,7 +7277,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="3" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>690</v>
@@ -7238,10 +7289,10 @@
         <v>692</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>450</v>
+        <v>98</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>624</v>
+        <v>99</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>22</v>
@@ -7264,7 +7315,7 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="3" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>696</v>
@@ -7276,133 +7327,133 @@
         <v>698</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>327</v>
+        <v>51</v>
       </c>
       <c r="F109" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H109" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="I109" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K109" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H109" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="I109" s="3" t="s">
+      <c r="L109" s="4" t="s">
         <v>701</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L109" s="4" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="3" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="E110" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H110" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H110" s="3" t="s">
+      <c r="I110" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="J110" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L110" s="4" t="s">
         <v>707</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L110" s="4" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="3" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="E111" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H111" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H111" s="3" t="s">
+      <c r="I111" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="I111" s="3" t="s">
+      <c r="J111" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L111" s="4" t="s">
         <v>713</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L111" s="4" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="3" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="D112" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="D112" s="3" t="s">
-        <v>320</v>
-      </c>
       <c r="E112" s="3" t="s">
-        <v>43</v>
+        <v>333</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>44</v>
+        <v>717</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J112" s="3" t="s">
         <v>21</v>
@@ -7411,36 +7462,36 @@
         <v>22</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="3" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="J113" s="3" t="s">
         <v>21</v>
@@ -7449,65 +7500,65 @@
         <v>22</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="3" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="J114" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="3" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>734</v>
+        <v>326</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>22</v>
@@ -7530,25 +7581,25 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="D116" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="E116" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>741</v>
@@ -7568,7 +7619,7 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="3" t="s">
-        <v>738</v>
+        <v>633</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>744</v>
@@ -7580,10 +7631,10 @@
         <v>746</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>22</v>
@@ -7598,7 +7649,7 @@
         <v>21</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L117" s="4" t="s">
         <v>749</v>
@@ -7606,7 +7657,7 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="3" t="s">
-        <v>738</v>
+        <v>633</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>750</v>
@@ -7618,121 +7669,121 @@
         <v>752</v>
       </c>
       <c r="E118" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H118" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="I118" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="G118" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H118" s="3" t="s">
+      <c r="J118" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L118" s="4" t="s">
         <v>755</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L118" s="4" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="3" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="D119" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="I119" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H119" s="3" t="s">
+      <c r="J119" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L119" s="4" t="s">
         <v>761</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L119" s="4" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="3" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="E120" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H120" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H120" s="3" t="s">
+      <c r="I120" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="I120" s="3" t="s">
+      <c r="J120" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L120" s="4" t="s">
         <v>767</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K120" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L120" s="4" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="3" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="D121" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="E121" s="3" t="s">
         <v>771</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>592</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>772</v>
@@ -7758,7 +7809,7 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="3" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>776</v>
@@ -7767,22 +7818,22 @@
         <v>777</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>199</v>
+        <v>778</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="J122" s="3" t="s">
         <v>21</v>
@@ -7791,27 +7842,27 @@
         <v>22</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="3" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>51</v>
+        <v>294</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>43</v>
+        <v>386</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>22</v>
@@ -7834,7 +7885,7 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="3" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>787</v>
@@ -7846,19 +7897,19 @@
         <v>789</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>27</v>
+        <v>611</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>28</v>
+        <v>790</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="J124" s="3" t="s">
         <v>21</v>
@@ -7867,36 +7918,36 @@
         <v>22</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="3" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>579</v>
+        <v>205</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="J125" s="3" t="s">
         <v>21</v>
@@ -7905,36 +7956,36 @@
         <v>22</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="3" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="J126" s="3" t="s">
         <v>21</v>
@@ -7943,36 +7994,36 @@
         <v>22</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="3" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J127" s="3" t="s">
         <v>21</v>
@@ -7981,27 +8032,27 @@
         <v>22</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="3" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>812</v>
+        <v>598</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>22</v>
@@ -8024,7 +8075,7 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="3" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>816</v>
@@ -8036,10 +8087,10 @@
         <v>818</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>22</v>
@@ -8054,7 +8105,7 @@
         <v>21</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L129" s="4" t="s">
         <v>821</v>
@@ -8062,7 +8113,7 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="3" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>822</v>
@@ -8077,7 +8128,7 @@
         <v>51</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>22</v>
@@ -8100,7 +8151,7 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="3" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>828</v>
@@ -8112,10 +8163,10 @@
         <v>830</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>22</v>
@@ -8138,7 +8189,7 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="3" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>834</v>
@@ -8150,10 +8201,10 @@
         <v>836</v>
       </c>
       <c r="E132" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F132" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>22</v>
@@ -8168,7 +8219,7 @@
         <v>21</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L132" s="4" t="s">
         <v>839</v>
@@ -8176,7 +8227,7 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="3" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>840</v>
@@ -8188,10 +8239,10 @@
         <v>842</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>22</v>
@@ -8214,7 +8265,7 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="3" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>846</v>
@@ -8226,10 +8277,10 @@
         <v>848</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>450</v>
+        <v>112</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>22</v>
@@ -8252,7 +8303,7 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="3" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>852</v>
@@ -8264,10 +8315,10 @@
         <v>854</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>308</v>
+        <v>27</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>22</v>
@@ -8290,98 +8341,98 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="C136" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="D136" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="E136" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H136" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H136" s="3" t="s">
+      <c r="I136" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="I136" s="3" t="s">
+      <c r="J136" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L136" s="4" t="s">
         <v>863</v>
-      </c>
-      <c r="J136" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K136" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L136" s="4" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="3" t="s">
-        <v>858</v>
+        <v>756</v>
       </c>
       <c r="B137" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="D137" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="E137" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H137" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="E137" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H137" s="3" t="s">
+      <c r="I137" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="I137" s="3" t="s">
+      <c r="J137" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L137" s="4" t="s">
         <v>869</v>
-      </c>
-      <c r="J137" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K137" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L137" s="4" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="3" t="s">
-        <v>858</v>
+        <v>756</v>
       </c>
       <c r="B138" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="D138" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>396</v>
-      </c>
       <c r="E138" s="3" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>27</v>
+        <v>680</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>22</v>
@@ -8404,22 +8455,22 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="3" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>878</v>
+        <v>90</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>327</v>
+        <v>27</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>22</v>
@@ -8442,7 +8493,7 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="3" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>882</v>
@@ -8454,10 +8505,10 @@
         <v>884</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>22</v>
@@ -8480,7 +8531,7 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="3" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>888</v>
@@ -8489,89 +8540,89 @@
         <v>889</v>
       </c>
       <c r="D141" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H141" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="E141" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H141" s="3" t="s">
+      <c r="I141" s="3" t="s">
         <v>891</v>
       </c>
-      <c r="I141" s="3" t="s">
+      <c r="J141" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L141" s="4" t="s">
         <v>892</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K141" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L141" s="4" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="3" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="D142" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="E142" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H142" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="E142" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H142" s="3" t="s">
+      <c r="I142" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="I142" s="3" t="s">
+      <c r="J142" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L142" s="4" t="s">
         <v>898</v>
-      </c>
-      <c r="J142" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K142" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L142" s="4" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="3" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="B143" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="D143" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="E143" s="3" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>22</v>
@@ -8594,7 +8645,7 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="3" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>905</v>
@@ -8606,10 +8657,10 @@
         <v>907</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>43</v>
+        <v>611</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>44</v>
+        <v>790</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>22</v>
@@ -8632,7 +8683,7 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="3" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>911</v>
@@ -8644,146 +8695,260 @@
         <v>913</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>592</v>
+        <v>91</v>
       </c>
       <c r="F145" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H145" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="G145" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H145" s="3" t="s">
+      <c r="I145" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="I145" s="3" t="s">
+      <c r="J145" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L145" s="4" t="s">
         <v>916</v>
-      </c>
-      <c r="J145" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K145" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L145" s="4" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="3" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="D146" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H146" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="I146" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="E146" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H146" s="3" t="s">
+      <c r="J146" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L146" s="4" t="s">
         <v>921</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="J146" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K146" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L146" s="4" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="3" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="D147" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="E147" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H147" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="I147" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="E147" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H147" s="3" t="s">
+      <c r="J147" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L147" s="4" t="s">
         <v>927</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="J147" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K147" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L147" s="4" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="3" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="E148" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="F148" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="G148" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H148" s="3" t="s">
         <v>932</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="I148" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L148" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L149" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L150" s="4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="E151" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F148" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H148" s="3" t="s">
-        <v>933</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>934</v>
-      </c>
-      <c r="J148" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K148" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L148" s="4" t="s">
-        <v>935</v>
+      <c r="F151" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L151" s="4" t="s">
+        <v>952</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:L148"/>
+  <autoFilter ref="A3:L151"/>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
@@ -8803,136 +8968,139 @@
     <hyperlink ref="L16" r:id="rId13" location="/?sstr=54468782" tooltip="Click here for details."/>
     <hyperlink ref="L17" r:id="rId14" location="/?sstr=54469015" tooltip="Click here for details."/>
     <hyperlink ref="L18" r:id="rId15" location="/?sstr=54467613" tooltip="Click here for details."/>
-    <hyperlink ref="L19" r:id="rId16" location="/?sstr=54469021" tooltip="Click here for details."/>
-    <hyperlink ref="L20" r:id="rId17" location="/?sstr=2359592" tooltip="Click here for details."/>
-    <hyperlink ref="L21" r:id="rId18" location="/?sstr=2613569" tooltip="Click here for details."/>
-    <hyperlink ref="L22" r:id="rId19" location="/?sstr=3160723" tooltip="Click here for details."/>
-    <hyperlink ref="L23" r:id="rId20" location="/?sstr=3345307" tooltip="Click here for details."/>
-    <hyperlink ref="L24" r:id="rId21" location="/?sstr=3781467" tooltip="Click here for details."/>
-    <hyperlink ref="L25" r:id="rId22" location="/?sstr=3836275" tooltip="Click here for details."/>
-    <hyperlink ref="L26" r:id="rId23" location="/?sstr=3837806" tooltip="Click here for details."/>
-    <hyperlink ref="L27" r:id="rId24" location="/?sstr=54153123" tooltip="Click here for details."/>
-    <hyperlink ref="L28" r:id="rId25" location="/?sstr=54179001" tooltip="Click here for details."/>
-    <hyperlink ref="L29" r:id="rId26" location="/?sstr=54222544" tooltip="Click here for details."/>
-    <hyperlink ref="L30" r:id="rId27" location="/?sstr=54248454" tooltip="Click here for details."/>
-    <hyperlink ref="L31" r:id="rId28" location="/?sstr=54277080" tooltip="Click here for details."/>
-    <hyperlink ref="L32" r:id="rId29" location="/?sstr=54276248" tooltip="Click here for details."/>
-    <hyperlink ref="L33" r:id="rId30" location="/?sstr=54308062" tooltip="Click here for details."/>
-    <hyperlink ref="L34" r:id="rId31" location="/?sstr=54383282" tooltip="Click here for details."/>
-    <hyperlink ref="L35" r:id="rId32" location="/?sstr=54404089" tooltip="Click here for details."/>
-    <hyperlink ref="L36" r:id="rId33" location="/?sstr=54467175" tooltip="Click here for details."/>
-    <hyperlink ref="L37" r:id="rId34" location="/?sstr=54470418" tooltip="Click here for details."/>
-    <hyperlink ref="L38" r:id="rId35" location="/?sstr=54469029" tooltip="Click here for details."/>
-    <hyperlink ref="L39" r:id="rId36" location="/?sstr=54468776" tooltip="Click here for details."/>
-    <hyperlink ref="L40" r:id="rId37" location="/?sstr=54469034" tooltip="Click here for details."/>
-    <hyperlink ref="L41" r:id="rId38" location="/?sstr=54470416" tooltip="Click here for details."/>
-    <hyperlink ref="L42" r:id="rId39" location="/?sstr=2613512" tooltip="Click here for details."/>
-    <hyperlink ref="L43" r:id="rId40" location="/?sstr=3605257" tooltip="Click here for details."/>
-    <hyperlink ref="L44" r:id="rId41" location="/?sstr=3739011" tooltip="Click here for details."/>
-    <hyperlink ref="L45" r:id="rId42" location="/?sstr=3797422" tooltip="Click here for details."/>
-    <hyperlink ref="L46" r:id="rId43" location="/?sstr=3968757" tooltip="Click here for details."/>
-    <hyperlink ref="L47" r:id="rId44" location="/?sstr=54048892" tooltip="Click here for details."/>
-    <hyperlink ref="L48" r:id="rId45" location="/?sstr=54051132" tooltip="Click here for details."/>
-    <hyperlink ref="L49" r:id="rId46" location="/?sstr=54193840" tooltip="Click here for details."/>
-    <hyperlink ref="L50" r:id="rId47" location="/?sstr=54280032" tooltip="Click here for details."/>
-    <hyperlink ref="L51" r:id="rId48" location="/?sstr=54433741" tooltip="Click here for details."/>
-    <hyperlink ref="L52" r:id="rId49" location="/?sstr=54467563" tooltip="Click here for details."/>
-    <hyperlink ref="L53" r:id="rId50" location="/?sstr=54469023" tooltip="Click here for details."/>
-    <hyperlink ref="L54" r:id="rId51" location="/?sstr=54470174" tooltip="Click here for details."/>
-    <hyperlink ref="L55" r:id="rId52" location="/?sstr=2396593" tooltip="Click here for details."/>
-    <hyperlink ref="L56" r:id="rId53" location="/?sstr=3001703" tooltip="Click here for details."/>
-    <hyperlink ref="L57" r:id="rId54" location="/?sstr=3752409" tooltip="Click here for details."/>
-    <hyperlink ref="L58" r:id="rId55" location="/?sstr=3767015" tooltip="Click here for details."/>
-    <hyperlink ref="L59" r:id="rId56" location="/?sstr=3775207" tooltip="Click here for details."/>
-    <hyperlink ref="L60" r:id="rId57" location="/?sstr=3838859" tooltip="Click here for details."/>
-    <hyperlink ref="L61" r:id="rId58" location="/?sstr=54054277" tooltip="Click here for details."/>
-    <hyperlink ref="L62" r:id="rId59" location="/?sstr=54130503" tooltip="Click here for details."/>
-    <hyperlink ref="L63" r:id="rId60" location="/?sstr=54189755" tooltip="Click here for details."/>
-    <hyperlink ref="L64" r:id="rId61" location="/?sstr=54276728" tooltip="Click here for details."/>
-    <hyperlink ref="L65" r:id="rId62" location="/?sstr=54384198" tooltip="Click here for details."/>
-    <hyperlink ref="L66" r:id="rId63" location="/?sstr=54383801" tooltip="Click here for details."/>
-    <hyperlink ref="L67" r:id="rId64" location="/?sstr=54382563" tooltip="Click here for details."/>
-    <hyperlink ref="L68" r:id="rId65" location="/?sstr=54431806" tooltip="Click here for details."/>
-    <hyperlink ref="L69" r:id="rId66" location="/?sstr=54437395" tooltip="Click here for details."/>
-    <hyperlink ref="L70" r:id="rId67" location="/?sstr=54458183" tooltip="Click here for details."/>
-    <hyperlink ref="L71" r:id="rId68" location="/?sstr=54470175" tooltip="Click here for details."/>
-    <hyperlink ref="L72" r:id="rId69" location="/?sstr=54469017" tooltip="Click here for details."/>
-    <hyperlink ref="L73" r:id="rId70" location="/?sstr=54468788" tooltip="Click here for details."/>
-    <hyperlink ref="L74" r:id="rId71" location="/?sstr=54468765" tooltip="Click here for details."/>
-    <hyperlink ref="L75" r:id="rId72" location="/?sstr=54468793" tooltip="Click here for details."/>
-    <hyperlink ref="L76" r:id="rId73" location="/?sstr=2459386" tooltip="Click here for details."/>
-    <hyperlink ref="L77" r:id="rId74" location="/?sstr=2497096" tooltip="Click here for details."/>
-    <hyperlink ref="L78" r:id="rId75" location="/?sstr=2537098" tooltip="Click here for details."/>
-    <hyperlink ref="L79" r:id="rId76" location="/?sstr=2066251" tooltip="Click here for details."/>
-    <hyperlink ref="L80" r:id="rId77" location="/?sstr=3252347" tooltip="Click here for details."/>
-    <hyperlink ref="L81" r:id="rId78" location="/?sstr=3430492" tooltip="Click here for details."/>
-    <hyperlink ref="L82" r:id="rId79" location="/?sstr=3729233" tooltip="Click here for details."/>
-    <hyperlink ref="L83" r:id="rId80" location="/?sstr=3838102" tooltip="Click here for details."/>
-    <hyperlink ref="L84" r:id="rId81" location="/?sstr=3892010" tooltip="Click here for details."/>
-    <hyperlink ref="L85" r:id="rId82" location="/?sstr=54131585" tooltip="Click here for details."/>
-    <hyperlink ref="L86" r:id="rId83" location="/?sstr=54136189" tooltip="Click here for details."/>
-    <hyperlink ref="L87" r:id="rId84" location="/?sstr=54386827" tooltip="Click here for details."/>
-    <hyperlink ref="L88" r:id="rId85" location="/?sstr=54439893" tooltip="Click here for details."/>
-    <hyperlink ref="L89" r:id="rId86" location="/?sstr=54467188" tooltip="Click here for details."/>
-    <hyperlink ref="L90" r:id="rId87" location="/?sstr=54468517" tooltip="Click here for details."/>
-    <hyperlink ref="L91" r:id="rId88" location="/?sstr=54470172" tooltip="Click here for details."/>
-    <hyperlink ref="L92" r:id="rId89" location="/?sstr=54468784" tooltip="Click here for details."/>
-    <hyperlink ref="L93" r:id="rId90" location="/?sstr=54467615" tooltip="Click here for details."/>
-    <hyperlink ref="L94" r:id="rId91" location="/?sstr=54467982" tooltip="Click here for details."/>
-    <hyperlink ref="L95" r:id="rId92" location="/?sstr=2007336" tooltip="Click here for details."/>
-    <hyperlink ref="L96" r:id="rId93" location="/?sstr=3345236" tooltip="Click here for details."/>
-    <hyperlink ref="L97" r:id="rId94" location="/?sstr=3383901" tooltip="Click here for details."/>
-    <hyperlink ref="L98" r:id="rId95" location="/?sstr=3467261" tooltip="Click here for details."/>
-    <hyperlink ref="L99" r:id="rId96" location="/?sstr=3770328" tooltip="Click here for details."/>
-    <hyperlink ref="L100" r:id="rId97" location="/?sstr=3802577" tooltip="Click here for details."/>
-    <hyperlink ref="L101" r:id="rId98" location="/?sstr=3819747" tooltip="Click here for details."/>
-    <hyperlink ref="L102" r:id="rId99" location="/?sstr=54051420" tooltip="Click here for details."/>
-    <hyperlink ref="L103" r:id="rId100" location="/?sstr=54054565" tooltip="Click here for details."/>
-    <hyperlink ref="L104" r:id="rId101" location="/?sstr=54224433" tooltip="Click here for details."/>
-    <hyperlink ref="L105" r:id="rId102" location="/?sstr=54290859" tooltip="Click here for details."/>
-    <hyperlink ref="L106" r:id="rId103" location="/?sstr=54301298" tooltip="Click here for details."/>
-    <hyperlink ref="L107" r:id="rId104" location="/?sstr=54423509" tooltip="Click here for details."/>
-    <hyperlink ref="L108" r:id="rId105" location="/?sstr=54437048" tooltip="Click here for details."/>
-    <hyperlink ref="L109" r:id="rId106" location="/?sstr=54465209" tooltip="Click here for details."/>
-    <hyperlink ref="L110" r:id="rId107" location="/?sstr=54465293" tooltip="Click here for details."/>
-    <hyperlink ref="L111" r:id="rId108" location="/?sstr=54466214" tooltip="Click here for details."/>
-    <hyperlink ref="L112" r:id="rId109" location="/?sstr=54468780" tooltip="Click here for details."/>
-    <hyperlink ref="L113" r:id="rId110" location="/?sstr=54468787" tooltip="Click here for details."/>
-    <hyperlink ref="L114" r:id="rId111" location="/?sstr=54470415" tooltip="Click here for details."/>
-    <hyperlink ref="L115" r:id="rId112" location="/?sstr=2470678" tooltip="Click here for details."/>
-    <hyperlink ref="L116" r:id="rId113" location="/?sstr=3633188" tooltip="Click here for details."/>
-    <hyperlink ref="L117" r:id="rId114" location="/?sstr=3763102" tooltip="Click here for details."/>
-    <hyperlink ref="L118" r:id="rId115" location="/?sstr=3769918" tooltip="Click here for details."/>
-    <hyperlink ref="L119" r:id="rId116" location="/?sstr=3771614" tooltip="Click here for details."/>
-    <hyperlink ref="L120" r:id="rId117" location="/?sstr=3799696" tooltip="Click here for details."/>
-    <hyperlink ref="L121" r:id="rId118" location="/?sstr=3826811" tooltip="Click here for details."/>
-    <hyperlink ref="L122" r:id="rId119" location="/?sstr=3843767" tooltip="Click here for details."/>
-    <hyperlink ref="L123" r:id="rId120" location="/?sstr=54138695" tooltip="Click here for details."/>
-    <hyperlink ref="L124" r:id="rId121" location="/?sstr=54172000" tooltip="Click here for details."/>
-    <hyperlink ref="L125" r:id="rId122" location="/?sstr=54193349" tooltip="Click here for details."/>
-    <hyperlink ref="L126" r:id="rId123" location="/?sstr=54236423" tooltip="Click here for details."/>
-    <hyperlink ref="L127" r:id="rId124" location="/?sstr=54316648" tooltip="Click here for details."/>
-    <hyperlink ref="L128" r:id="rId125" location="/?sstr=54322888" tooltip="Click here for details."/>
-    <hyperlink ref="L129" r:id="rId126" location="/?sstr=54380210" tooltip="Click here for details."/>
-    <hyperlink ref="L130" r:id="rId127" location="/?sstr=54385805" tooltip="Click here for details."/>
-    <hyperlink ref="L131" r:id="rId128" location="/?sstr=54469527" tooltip="Click here for details."/>
-    <hyperlink ref="L132" r:id="rId129" location="/?sstr=54467958" tooltip="Click here for details."/>
-    <hyperlink ref="L133" r:id="rId130" location="/?sstr=54470178" tooltip="Click here for details."/>
-    <hyperlink ref="L134" r:id="rId131" location="/?sstr=54468520" tooltip="Click here for details."/>
-    <hyperlink ref="L135" r:id="rId132" location="/?sstr=54469551" tooltip="Click here for details."/>
-    <hyperlink ref="L136" r:id="rId133" location="/?sstr=3092069" tooltip="Click here for details."/>
-    <hyperlink ref="L137" r:id="rId134" location="/?sstr=3728231" tooltip="Click here for details."/>
-    <hyperlink ref="L138" r:id="rId135" location="/?sstr=3728565" tooltip="Click here for details."/>
-    <hyperlink ref="L139" r:id="rId136" location="/?sstr=3745058" tooltip="Click here for details."/>
-    <hyperlink ref="L140" r:id="rId137" location="/?sstr=3827143" tooltip="Click here for details."/>
-    <hyperlink ref="L141" r:id="rId138" location="/?sstr=54192742" tooltip="Click here for details."/>
-    <hyperlink ref="L142" r:id="rId139" location="/?sstr=54246399" tooltip="Click here for details."/>
-    <hyperlink ref="L143" r:id="rId140" location="/?sstr=54305247" tooltip="Click here for details."/>
-    <hyperlink ref="L144" r:id="rId141" location="/?sstr=54310134" tooltip="Click here for details."/>
-    <hyperlink ref="L145" r:id="rId142" location="/?sstr=54465272" tooltip="Click here for details."/>
-    <hyperlink ref="L146" r:id="rId143" location="/?sstr=54466507" tooltip="Click here for details."/>
-    <hyperlink ref="L147" r:id="rId144" location="/?sstr=54467963" tooltip="Click here for details."/>
-    <hyperlink ref="L148" r:id="rId145" location="/?sstr=54470427" tooltip="Click here for details."/>
+    <hyperlink ref="L19" r:id="rId16" location="/?sstr=54470722" tooltip="Click here for details."/>
+    <hyperlink ref="L20" r:id="rId17" location="/?sstr=54469021" tooltip="Click here for details."/>
+    <hyperlink ref="L21" r:id="rId18" location="/?sstr=2359592" tooltip="Click here for details."/>
+    <hyperlink ref="L22" r:id="rId19" location="/?sstr=2613569" tooltip="Click here for details."/>
+    <hyperlink ref="L23" r:id="rId20" location="/?sstr=3160723" tooltip="Click here for details."/>
+    <hyperlink ref="L24" r:id="rId21" location="/?sstr=3345307" tooltip="Click here for details."/>
+    <hyperlink ref="L25" r:id="rId22" location="/?sstr=3781467" tooltip="Click here for details."/>
+    <hyperlink ref="L26" r:id="rId23" location="/?sstr=3836275" tooltip="Click here for details."/>
+    <hyperlink ref="L27" r:id="rId24" location="/?sstr=3837806" tooltip="Click here for details."/>
+    <hyperlink ref="L28" r:id="rId25" location="/?sstr=54153123" tooltip="Click here for details."/>
+    <hyperlink ref="L29" r:id="rId26" location="/?sstr=54179001" tooltip="Click here for details."/>
+    <hyperlink ref="L30" r:id="rId27" location="/?sstr=54222544" tooltip="Click here for details."/>
+    <hyperlink ref="L31" r:id="rId28" location="/?sstr=54248454" tooltip="Click here for details."/>
+    <hyperlink ref="L32" r:id="rId29" location="/?sstr=54277080" tooltip="Click here for details."/>
+    <hyperlink ref="L33" r:id="rId30" location="/?sstr=54276248" tooltip="Click here for details."/>
+    <hyperlink ref="L34" r:id="rId31" location="/?sstr=54308062" tooltip="Click here for details."/>
+    <hyperlink ref="L35" r:id="rId32" location="/?sstr=54383282" tooltip="Click here for details."/>
+    <hyperlink ref="L36" r:id="rId33" location="/?sstr=54404089" tooltip="Click here for details."/>
+    <hyperlink ref="L37" r:id="rId34" location="/?sstr=54467175" tooltip="Click here for details."/>
+    <hyperlink ref="L38" r:id="rId35" location="/?sstr=54470418" tooltip="Click here for details."/>
+    <hyperlink ref="L39" r:id="rId36" location="/?sstr=54469029" tooltip="Click here for details."/>
+    <hyperlink ref="L40" r:id="rId37" location="/?sstr=54468776" tooltip="Click here for details."/>
+    <hyperlink ref="L41" r:id="rId38" location="/?sstr=54469034" tooltip="Click here for details."/>
+    <hyperlink ref="L42" r:id="rId39" location="/?sstr=54470416" tooltip="Click here for details."/>
+    <hyperlink ref="L43" r:id="rId40" location="/?sstr=2613512" tooltip="Click here for details."/>
+    <hyperlink ref="L44" r:id="rId41" location="/?sstr=3605257" tooltip="Click here for details."/>
+    <hyperlink ref="L45" r:id="rId42" location="/?sstr=3739011" tooltip="Click here for details."/>
+    <hyperlink ref="L46" r:id="rId43" location="/?sstr=3797422" tooltip="Click here for details."/>
+    <hyperlink ref="L47" r:id="rId44" location="/?sstr=3968757" tooltip="Click here for details."/>
+    <hyperlink ref="L48" r:id="rId45" location="/?sstr=54048892" tooltip="Click here for details."/>
+    <hyperlink ref="L49" r:id="rId46" location="/?sstr=54051132" tooltip="Click here for details."/>
+    <hyperlink ref="L50" r:id="rId47" location="/?sstr=54193840" tooltip="Click here for details."/>
+    <hyperlink ref="L51" r:id="rId48" location="/?sstr=54280032" tooltip="Click here for details."/>
+    <hyperlink ref="L52" r:id="rId49" location="/?sstr=54433741" tooltip="Click here for details."/>
+    <hyperlink ref="L53" r:id="rId50" location="/?sstr=54467563" tooltip="Click here for details."/>
+    <hyperlink ref="L54" r:id="rId51" location="/?sstr=54470730" tooltip="Click here for details."/>
+    <hyperlink ref="L55" r:id="rId52" location="/?sstr=54469023" tooltip="Click here for details."/>
+    <hyperlink ref="L56" r:id="rId53" location="/?sstr=54470731" tooltip="Click here for details."/>
+    <hyperlink ref="L57" r:id="rId54" location="/?sstr=54470174" tooltip="Click here for details."/>
+    <hyperlink ref="L58" r:id="rId55" location="/?sstr=2396593" tooltip="Click here for details."/>
+    <hyperlink ref="L59" r:id="rId56" location="/?sstr=3001703" tooltip="Click here for details."/>
+    <hyperlink ref="L60" r:id="rId57" location="/?sstr=3752409" tooltip="Click here for details."/>
+    <hyperlink ref="L61" r:id="rId58" location="/?sstr=3767015" tooltip="Click here for details."/>
+    <hyperlink ref="L62" r:id="rId59" location="/?sstr=3775207" tooltip="Click here for details."/>
+    <hyperlink ref="L63" r:id="rId60" location="/?sstr=3838859" tooltip="Click here for details."/>
+    <hyperlink ref="L64" r:id="rId61" location="/?sstr=54054277" tooltip="Click here for details."/>
+    <hyperlink ref="L65" r:id="rId62" location="/?sstr=54130503" tooltip="Click here for details."/>
+    <hyperlink ref="L66" r:id="rId63" location="/?sstr=54189755" tooltip="Click here for details."/>
+    <hyperlink ref="L67" r:id="rId64" location="/?sstr=54276728" tooltip="Click here for details."/>
+    <hyperlink ref="L68" r:id="rId65" location="/?sstr=54384198" tooltip="Click here for details."/>
+    <hyperlink ref="L69" r:id="rId66" location="/?sstr=54383801" tooltip="Click here for details."/>
+    <hyperlink ref="L70" r:id="rId67" location="/?sstr=54382563" tooltip="Click here for details."/>
+    <hyperlink ref="L71" r:id="rId68" location="/?sstr=54431806" tooltip="Click here for details."/>
+    <hyperlink ref="L72" r:id="rId69" location="/?sstr=54437395" tooltip="Click here for details."/>
+    <hyperlink ref="L73" r:id="rId70" location="/?sstr=54458183" tooltip="Click here for details."/>
+    <hyperlink ref="L74" r:id="rId71" location="/?sstr=54470175" tooltip="Click here for details."/>
+    <hyperlink ref="L75" r:id="rId72" location="/?sstr=54469017" tooltip="Click here for details."/>
+    <hyperlink ref="L76" r:id="rId73" location="/?sstr=54468788" tooltip="Click here for details."/>
+    <hyperlink ref="L77" r:id="rId74" location="/?sstr=54468765" tooltip="Click here for details."/>
+    <hyperlink ref="L78" r:id="rId75" location="/?sstr=54468793" tooltip="Click here for details."/>
+    <hyperlink ref="L79" r:id="rId76" location="/?sstr=2459386" tooltip="Click here for details."/>
+    <hyperlink ref="L80" r:id="rId77" location="/?sstr=2497096" tooltip="Click here for details."/>
+    <hyperlink ref="L81" r:id="rId78" location="/?sstr=2537098" tooltip="Click here for details."/>
+    <hyperlink ref="L82" r:id="rId79" location="/?sstr=2066251" tooltip="Click here for details."/>
+    <hyperlink ref="L83" r:id="rId80" location="/?sstr=3252347" tooltip="Click here for details."/>
+    <hyperlink ref="L84" r:id="rId81" location="/?sstr=3430492" tooltip="Click here for details."/>
+    <hyperlink ref="L85" r:id="rId82" location="/?sstr=3729233" tooltip="Click here for details."/>
+    <hyperlink ref="L86" r:id="rId83" location="/?sstr=3838102" tooltip="Click here for details."/>
+    <hyperlink ref="L87" r:id="rId84" location="/?sstr=3892010" tooltip="Click here for details."/>
+    <hyperlink ref="L88" r:id="rId85" location="/?sstr=54131585" tooltip="Click here for details."/>
+    <hyperlink ref="L89" r:id="rId86" location="/?sstr=54136189" tooltip="Click here for details."/>
+    <hyperlink ref="L90" r:id="rId87" location="/?sstr=54386827" tooltip="Click here for details."/>
+    <hyperlink ref="L91" r:id="rId88" location="/?sstr=54439893" tooltip="Click here for details."/>
+    <hyperlink ref="L92" r:id="rId89" location="/?sstr=54467188" tooltip="Click here for details."/>
+    <hyperlink ref="L93" r:id="rId90" location="/?sstr=54468517" tooltip="Click here for details."/>
+    <hyperlink ref="L94" r:id="rId91" location="/?sstr=54470172" tooltip="Click here for details."/>
+    <hyperlink ref="L95" r:id="rId92" location="/?sstr=54468784" tooltip="Click here for details."/>
+    <hyperlink ref="L96" r:id="rId93" location="/?sstr=54467615" tooltip="Click here for details."/>
+    <hyperlink ref="L97" r:id="rId94" location="/?sstr=54467982" tooltip="Click here for details."/>
+    <hyperlink ref="L98" r:id="rId95" location="/?sstr=2007336" tooltip="Click here for details."/>
+    <hyperlink ref="L99" r:id="rId96" location="/?sstr=3345236" tooltip="Click here for details."/>
+    <hyperlink ref="L100" r:id="rId97" location="/?sstr=3383901" tooltip="Click here for details."/>
+    <hyperlink ref="L101" r:id="rId98" location="/?sstr=3467261" tooltip="Click here for details."/>
+    <hyperlink ref="L102" r:id="rId99" location="/?sstr=3770328" tooltip="Click here for details."/>
+    <hyperlink ref="L103" r:id="rId100" location="/?sstr=3802577" tooltip="Click here for details."/>
+    <hyperlink ref="L104" r:id="rId101" location="/?sstr=3819747" tooltip="Click here for details."/>
+    <hyperlink ref="L105" r:id="rId102" location="/?sstr=54051420" tooltip="Click here for details."/>
+    <hyperlink ref="L106" r:id="rId103" location="/?sstr=54054565" tooltip="Click here for details."/>
+    <hyperlink ref="L107" r:id="rId104" location="/?sstr=54224433" tooltip="Click here for details."/>
+    <hyperlink ref="L108" r:id="rId105" location="/?sstr=54290859" tooltip="Click here for details."/>
+    <hyperlink ref="L109" r:id="rId106" location="/?sstr=54301298" tooltip="Click here for details."/>
+    <hyperlink ref="L110" r:id="rId107" location="/?sstr=54423509" tooltip="Click here for details."/>
+    <hyperlink ref="L111" r:id="rId108" location="/?sstr=54437048" tooltip="Click here for details."/>
+    <hyperlink ref="L112" r:id="rId109" location="/?sstr=54465209" tooltip="Click here for details."/>
+    <hyperlink ref="L113" r:id="rId110" location="/?sstr=54465293" tooltip="Click here for details."/>
+    <hyperlink ref="L114" r:id="rId111" location="/?sstr=54466214" tooltip="Click here for details."/>
+    <hyperlink ref="L115" r:id="rId112" location="/?sstr=54468780" tooltip="Click here for details."/>
+    <hyperlink ref="L116" r:id="rId113" location="/?sstr=54468787" tooltip="Click here for details."/>
+    <hyperlink ref="L117" r:id="rId114" location="/?sstr=54470415" tooltip="Click here for details."/>
+    <hyperlink ref="L118" r:id="rId115" location="/?sstr=2470678" tooltip="Click here for details."/>
+    <hyperlink ref="L119" r:id="rId116" location="/?sstr=3633188" tooltip="Click here for details."/>
+    <hyperlink ref="L120" r:id="rId117" location="/?sstr=3763102" tooltip="Click here for details."/>
+    <hyperlink ref="L121" r:id="rId118" location="/?sstr=3769918" tooltip="Click here for details."/>
+    <hyperlink ref="L122" r:id="rId119" location="/?sstr=3771614" tooltip="Click here for details."/>
+    <hyperlink ref="L123" r:id="rId120" location="/?sstr=3799696" tooltip="Click here for details."/>
+    <hyperlink ref="L124" r:id="rId121" location="/?sstr=3826811" tooltip="Click here for details."/>
+    <hyperlink ref="L125" r:id="rId122" location="/?sstr=3843767" tooltip="Click here for details."/>
+    <hyperlink ref="L126" r:id="rId123" location="/?sstr=54138695" tooltip="Click here for details."/>
+    <hyperlink ref="L127" r:id="rId124" location="/?sstr=54172000" tooltip="Click here for details."/>
+    <hyperlink ref="L128" r:id="rId125" location="/?sstr=54193349" tooltip="Click here for details."/>
+    <hyperlink ref="L129" r:id="rId126" location="/?sstr=54236423" tooltip="Click here for details."/>
+    <hyperlink ref="L130" r:id="rId127" location="/?sstr=54316648" tooltip="Click here for details."/>
+    <hyperlink ref="L131" r:id="rId128" location="/?sstr=54322888" tooltip="Click here for details."/>
+    <hyperlink ref="L132" r:id="rId129" location="/?sstr=54380210" tooltip="Click here for details."/>
+    <hyperlink ref="L133" r:id="rId130" location="/?sstr=54385805" tooltip="Click here for details."/>
+    <hyperlink ref="L134" r:id="rId131" location="/?sstr=54469527" tooltip="Click here for details."/>
+    <hyperlink ref="L135" r:id="rId132" location="/?sstr=54467958" tooltip="Click here for details."/>
+    <hyperlink ref="L136" r:id="rId133" location="/?sstr=54470178" tooltip="Click here for details."/>
+    <hyperlink ref="L137" r:id="rId134" location="/?sstr=54468520" tooltip="Click here for details."/>
+    <hyperlink ref="L138" r:id="rId135" location="/?sstr=54469551" tooltip="Click here for details."/>
+    <hyperlink ref="L139" r:id="rId136" location="/?sstr=3092069" tooltip="Click here for details."/>
+    <hyperlink ref="L140" r:id="rId137" location="/?sstr=3728231" tooltip="Click here for details."/>
+    <hyperlink ref="L141" r:id="rId138" location="/?sstr=3728565" tooltip="Click here for details."/>
+    <hyperlink ref="L142" r:id="rId139" location="/?sstr=3745058" tooltip="Click here for details."/>
+    <hyperlink ref="L143" r:id="rId140" location="/?sstr=3827143" tooltip="Click here for details."/>
+    <hyperlink ref="L144" r:id="rId141" location="/?sstr=54192742" tooltip="Click here for details."/>
+    <hyperlink ref="L145" r:id="rId142" location="/?sstr=54246399" tooltip="Click here for details."/>
+    <hyperlink ref="L146" r:id="rId143" location="/?sstr=54305247" tooltip="Click here for details."/>
+    <hyperlink ref="L147" r:id="rId144" location="/?sstr=54310134" tooltip="Click here for details."/>
+    <hyperlink ref="L148" r:id="rId145" location="/?sstr=54465272" tooltip="Click here for details."/>
+    <hyperlink ref="L149" r:id="rId146" location="/?sstr=54466507" tooltip="Click here for details."/>
+    <hyperlink ref="L150" r:id="rId147" location="/?sstr=54467963" tooltip="Click here for details."/>
+    <hyperlink ref="L151" r:id="rId148" location="/?sstr=54470427" tooltip="Click here for details."/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape"/>

--- a/ApproachingAsteroids.xlsx
+++ b/ApproachingAsteroids.xlsx
@@ -2879,7 +2879,7 @@
     <t>https://ssd.jpl.nasa.gov/tools/sbdb_lookup.html#/?sstr=54470427</t>
   </si>
   <si>
-    <t>APPROACHING ASTEROIDS DATA (as of 12-Sep-2024 @ 01:55 PM) (148 Asteroids)</t>
+    <t>APPROACHING ASTEROIDS DATA (as of 12-Sep-2024 @ 02:51 PM) (148 Asteroids)</t>
   </si>
 </sst>
 </file>
